--- a/biology/Botanique/Coupe_d'Hébé/Coupe_d'Hébé.xlsx
+++ b/biology/Botanique/Coupe_d'Hébé/Coupe_d'Hébé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coupe_d%27H%C3%A9b%C3%A9</t>
+          <t>Coupe_d'Hébé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Coupe d'Hébé' est un cultivar de rosier ancien obtenu en 1840 par le rosiériste Jean Laffay. Il est issu d'un croisement rosier Bourbon x Rosa chinensis Jacq. C'est l'une des variétés de roses les plus appréciées des amateurs de roses anciennes. Son nom est dû à la déesse Hébé qui versait le nectar des dieux dans une coupe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coupe_d%27H%C3%A9b%C3%A9</t>
+          <t>Coupe_d'Hébé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier Bourbon tétraploïde présente de grosses fleurs roses doubles en forme de coupe très parfumées[2]. Il fleurit en bouquets en juin-juillet[3] avec parfois une petite remontée[4]. Il produit de gros cynorrhodons orange à l'automne.
-Son buisson vigoureux, au feuillage foncé, peut être conduit en sarmenteux[5] jusqu'à 2 mètres et plus[6], pour une largeur de 150 cm. Ses nombreuses feuilles sont à trois folioles[7]. Il est parfait aussi pour les haies et les massifs[8], mais craint le soleil très direct.
-Sa zone de rusticité est de 5b à 10b[4] ; il résiste donc au froid.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier Bourbon tétraploïde présente de grosses fleurs roses doubles en forme de coupe très parfumées. Il fleurit en bouquets en juin-juillet avec parfois une petite remontée. Il produit de gros cynorrhodons orange à l'automne.
+Son buisson vigoureux, au feuillage foncé, peut être conduit en sarmenteux jusqu'à 2 mètres et plus, pour une largeur de 150 cm. Ses nombreuses feuilles sont à trois folioles. Il est parfait aussi pour les haies et les massifs, mais craint le soleil très direct.
+Sa zone de rusticité est de 5b à 10b ; il résiste donc au froid.
 </t>
         </is>
       </c>
